--- a/src/test/resources/testdata/testdataloginpage.xlsx
+++ b/src/test/resources/testdata/testdataloginpage.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsethur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104A219-8349-487E-87A3-A42BE0F865E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3006D616-BDBA-46E0-8C8E-89867FF5E8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{646BECA2-8685-46AC-8E60-C2545E3ADE52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{646BECA2-8685-46AC-8E60-C2545E3ADE52}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Batch" sheetId="2" r:id="rId2"/>
+    <sheet name="Class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Login_validcrediential</t>
   </si>
@@ -87,13 +89,124 @@
   </si>
   <si>
     <t>Error message please check username</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Number of classes</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>BDDLearners_SDET23</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Batch created</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>BDD@@@</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Entered invalid values</t>
+  </si>
+  <si>
+    <t>Java Basic</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Missing fields</t>
+  </si>
+  <si>
+    <t>BDDLearners_SDET15</t>
+  </si>
+  <si>
+    <t>Batch Id</t>
+  </si>
+  <si>
+    <t>Class No</t>
+  </si>
+  <si>
+    <t>Class Date</t>
+  </si>
+  <si>
+    <t>Class Topic</t>
+  </si>
+  <si>
+    <t>Staff Id</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recordings</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>APython</t>
+  </si>
+  <si>
+    <t>00/00/2023</t>
+  </si>
+  <si>
+    <t>U576</t>
+  </si>
+  <si>
+    <t>U642</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +226,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,11 +291,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,6 +320,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A59F95-B7D2-47A6-8F3F-D3844BBF7B9F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -593,4 +760,445 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA54D34-B05C-495D-AEA1-CF98B9533863}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>235</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>345</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBCCDAE-F708-4CFB-AD04-6945C66D3F40}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>4666</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45179</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>4612</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45179</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2465</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45179</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2465</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45179</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45181</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>74645</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>7832</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8539</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45181</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>8539</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45179</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>